--- a/data/hotels_by_city/Dallas/Dallas_shard_563.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_563.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
   <si>
     <t>STR#</t>
   </si>
@@ -145,6 +145,183 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r369595151-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>244325</t>
+  </si>
+  <si>
+    <t>369595151</t>
+  </si>
+  <si>
+    <t>05/02/2016</t>
+  </si>
+  <si>
+    <t>So So</t>
+  </si>
+  <si>
+    <t>From the staff to the rooms, I wasn't happy. While checking in the man at the front desk wasn't very friendly nor did he have any customer service skills. He was very short and took my payment gave me my key and just seemed like he wanted to get me away from the front desk. Once I got to my room, I found nothing but problems. To start, the TV wasn't working. When cleaning the rooms I think house keeping should be checking things like that. I called down to the front desk and was told that someone would be right up. 2 hours past before I had to leave for a meeting and no one. As I was leaving I stopped down at the desk to speak with someone. I was in line behind a family checking in and for 20 minutes the men at the desk talked in their native language and didn't even turn to address us. They were loud and obnoxious. After they finished their conversation and the line has built, one of them goes "oh we were changing shifts and need to catch up." Well, don't 'catch up' nor change shifts at the front desk, and if you do, address the people waiting and let us know you'll be right with us and that you see us standing here. I asked why hasn't anyone been to my room and I was told "I sent him,...From the staff to the rooms, I wasn't happy. While checking in the man at the front desk wasn't very friendly nor did he have any customer service skills. He was very short and took my payment gave me my key and just seemed like he wanted to get me away from the front desk. Once I got to my room, I found nothing but problems. To start, the TV wasn't working. When cleaning the rooms I think house keeping should be checking things like that. I called down to the front desk and was told that someone would be right up. 2 hours past before I had to leave for a meeting and no one. As I was leaving I stopped down at the desk to speak with someone. I was in line behind a family checking in and for 20 minutes the men at the desk talked in their native language and didn't even turn to address us. They were loud and obnoxious. After they finished their conversation and the line has built, one of them goes "oh we were changing shifts and need to catch up." Well, don't 'catch up' nor change shifts at the front desk, and if you do, address the people waiting and let us know you'll be right with us and that you see us standing here. I asked why hasn't anyone been to my room and I was told "I sent him, not sure why he didn't stop." I asked for someone to go up and fix the TV. I was gone for almost 4 hours got back to my room and the TV STILL wasn't working. This time I went to the desk and demanded that someone went up with me, after all that I got a barely working TV. The next part of the room is the worst. I went to take my shower and the bathroom was just not okay. There were holes in the walls all over, the toilet wasn't correctly fixed to the wall or floor, the shower was dirty and had mold, and the lights were dim and full of spiderwebs. I couldn't check out of this hotel fast enough. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>6Team, Brand Experience Team Member at Motel 6 Dallas Northeast, responded to this reviewResponded May 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 4, 2016</t>
+  </si>
+  <si>
+    <t>From the staff to the rooms, I wasn't happy. While checking in the man at the front desk wasn't very friendly nor did he have any customer service skills. He was very short and took my payment gave me my key and just seemed like he wanted to get me away from the front desk. Once I got to my room, I found nothing but problems. To start, the TV wasn't working. When cleaning the rooms I think house keeping should be checking things like that. I called down to the front desk and was told that someone would be right up. 2 hours past before I had to leave for a meeting and no one. As I was leaving I stopped down at the desk to speak with someone. I was in line behind a family checking in and for 20 minutes the men at the desk talked in their native language and didn't even turn to address us. They were loud and obnoxious. After they finished their conversation and the line has built, one of them goes "oh we were changing shifts and need to catch up." Well, don't 'catch up' nor change shifts at the front desk, and if you do, address the people waiting and let us know you'll be right with us and that you see us standing here. I asked why hasn't anyone been to my room and I was told "I sent him,...From the staff to the rooms, I wasn't happy. While checking in the man at the front desk wasn't very friendly nor did he have any customer service skills. He was very short and took my payment gave me my key and just seemed like he wanted to get me away from the front desk. Once I got to my room, I found nothing but problems. To start, the TV wasn't working. When cleaning the rooms I think house keeping should be checking things like that. I called down to the front desk and was told that someone would be right up. 2 hours past before I had to leave for a meeting and no one. As I was leaving I stopped down at the desk to speak with someone. I was in line behind a family checking in and for 20 minutes the men at the desk talked in their native language and didn't even turn to address us. They were loud and obnoxious. After they finished their conversation and the line has built, one of them goes "oh we were changing shifts and need to catch up." Well, don't 'catch up' nor change shifts at the front desk, and if you do, address the people waiting and let us know you'll be right with us and that you see us standing here. I asked why hasn't anyone been to my room and I was told "I sent him, not sure why he didn't stop." I asked for someone to go up and fix the TV. I was gone for almost 4 hours got back to my room and the TV STILL wasn't working. This time I went to the desk and demanded that someone went up with me, after all that I got a barely working TV. The next part of the room is the worst. I went to take my shower and the bathroom was just not okay. There were holes in the walls all over, the toilet wasn't correctly fixed to the wall or floor, the shower was dirty and had mold, and the lights were dim and full of spiderwebs. I couldn't check out of this hotel fast enough. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r309312724-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>309312724</t>
+  </si>
+  <si>
+    <t>09/11/2015</t>
+  </si>
+  <si>
+    <t>Clueless clerk</t>
+  </si>
+  <si>
+    <t>So I booked this room last min after attending a concert bc of the vacancy and price. The clerk checks me in and gives me my room card. When I enter the room there are men's clothing and underwear strewn all over the room. I immediately turn and run out bc I was alone and didn't know if the owner of the clothing was there too. I make it back to the front desk to get the clerk and he tells me he will go check. When he returns he asks me is that not my stuff and I'm like sir you just checked me in less then 5 mins ago and all you saw me with was a small handbag. So by now my friend is pissed bc his parents were robbed the weekend before at a hotel bc of similar mistakes. So now the clerk is calling him stupid bc he is questioning him about his mistake. Even though we should have left right then we stayed. The top lock/latch was broken and there was a hole in the wall the size of a fist....never againMoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>6Team, brand expericened team member at Motel 6 Dallas Northeast, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>So I booked this room last min after attending a concert bc of the vacancy and price. The clerk checks me in and gives me my room card. When I enter the room there are men's clothing and underwear strewn all over the room. I immediately turn and run out bc I was alone and didn't know if the owner of the clothing was there too. I make it back to the front desk to get the clerk and he tells me he will go check. When he returns he asks me is that not my stuff and I'm like sir you just checked me in less then 5 mins ago and all you saw me with was a small handbag. So by now my friend is pissed bc his parents were robbed the weekend before at a hotel bc of similar mistakes. So now the clerk is calling him stupid bc he is questioning him about his mistake. Even though we should have left right then we stayed. The top lock/latch was broken and there was a hole in the wall the size of a fist....never againMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r210228326-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>210228326</t>
+  </si>
+  <si>
+    <t>06/13/2014</t>
+  </si>
+  <si>
+    <t>Dangerous!</t>
+  </si>
+  <si>
+    <t>The first thing i experienced here was a guy telling the apathetic and annoyed clerk his radio was stolen the night before in the parking lot. Should have known then to leave, but i stayed anyway. As i walked back to my car i noticed one of the cars in the lot was up on blocks with wheels missing.  Later in the room i had to throw the pillows off the bed because it was covered with dirt or something. Later my husband looked out the window to see a car go by with a gun pointed out the window. Constantly people comibg and going. Oh, and how could i forget the many prostitutes that seemed to be residing there. I was up all night worried that my car would get broken into or someone might start shooting. Do not stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>The first thing i experienced here was a guy telling the apathetic and annoyed clerk his radio was stolen the night before in the parking lot. Should have known then to leave, but i stayed anyway. As i walked back to my car i noticed one of the cars in the lot was up on blocks with wheels missing.  Later in the room i had to throw the pillows off the bed because it was covered with dirt or something. Later my husband looked out the window to see a car go by with a gun pointed out the window. Constantly people comibg and going. Oh, and how could i forget the many prostitutes that seemed to be residing there. I was up all night worried that my car would get broken into or someone might start shooting. Do not stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r185622973-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>185622973</t>
+  </si>
+  <si>
+    <t>11/23/2013</t>
+  </si>
+  <si>
+    <t>The Worst Motel Ever</t>
+  </si>
+  <si>
+    <t>The place was all over FILTHY!!!1. Gross, sticky substance on the floor by the bed.2. Pubic hair ALL OVER the bed.3. Sheets and bed comforter were stained, filthy and disgusting.4. The heater would not power off , as a result the room was over-heated.5. The room had a stomach-turning, foul odor.6. The floors looked like they had not been mopped in months.The place was so bad I didn't even want to walk in the bathroom thinking I was going to get filthy just by stepping into the shower. Its obvious that there is no maid service that do the job. I would NOT recommend this hotel to my worst enemy.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The place was all over FILTHY!!!1. Gross, sticky substance on the floor by the bed.2. Pubic hair ALL OVER the bed.3. Sheets and bed comforter were stained, filthy and disgusting.4. The heater would not power off , as a result the room was over-heated.5. The room had a stomach-turning, foul odor.6. The floors looked like they had not been mopped in months.The place was so bad I didn't even want to walk in the bathroom thinking I was going to get filthy just by stepping into the shower. Its obvious that there is no maid service that do the job. I would NOT recommend this hotel to my worst enemy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r185427163-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>185427163</t>
+  </si>
+  <si>
+    <t>11/21/2013</t>
+  </si>
+  <si>
+    <t>Very good for the $</t>
+  </si>
+  <si>
+    <t>Is my second stay, the first one was when the renovation was running...Rooms are nice, and also the bathroom. New led tv, micro and refri...I recommend it for a night stay. Location is excellent for my business.Also important quite and clean!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r165132336-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>165132336</t>
+  </si>
+  <si>
+    <t>06/24/2013</t>
+  </si>
+  <si>
+    <t>DO NOT PASS GO!</t>
+  </si>
+  <si>
+    <t>My fiancé and I stayed here one night due to traveling.  All I can say is RUN!  DO NOT STAY HERE!  The customer service is non-exsistent, the rooms are ghetto, and the smell is rancid!  If you are looking for a "good time" in and out place of stay...by all means do you!  We just got robbed of our $60 investment!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r141608170-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>141608170</t>
+  </si>
+  <si>
+    <t>09/29/2012</t>
+  </si>
+  <si>
+    <t>One of the WORSTmotel 6 I stayed at</t>
+  </si>
+  <si>
+    <t>The room stinch was horrible and the room would not cool down. She acted like she did not want to move my room. After 10 mins she FINALLY moved my room and it didn't have a phone and the room was still HOT and muggy please so not waste your money staying here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r128090446-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>128090446</t>
+  </si>
+  <si>
+    <t>04/17/2012</t>
+  </si>
+  <si>
+    <t>It was ok.</t>
+  </si>
+  <si>
+    <t>I like the location. The view is nice. I love Grandys resteraunt which is close by. Quiet hotel. Bathrooms could be bigger.</t>
   </si>
 </sst>
 </file>
@@ -645,6 +822,498 @@
         <v>42</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+      <c r="K3" t="s">
+        <v>59</v>
+      </c>
+      <c r="L3" t="s">
+        <v>60</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>61</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>71</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
+        <v>78</v>
+      </c>
+      <c r="O5" t="s">
+        <v>79</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>3</v>
+      </c>
+      <c r="S5" t="n">
+        <v>1</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>82</v>
+      </c>
+      <c r="J6" t="s">
+        <v>83</v>
+      </c>
+      <c r="K6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" t="s">
+        <v>85</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>78</v>
+      </c>
+      <c r="O6" t="s">
+        <v>86</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" t="s">
+        <v>89</v>
+      </c>
+      <c r="K7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L7" t="s">
+        <v>91</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s"/>
+      <c r="O7" t="s"/>
+      <c r="P7" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="n">
+        <v>1</v>
+      </c>
+      <c r="S7" t="n">
+        <v>1</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>1</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J8" t="s">
+        <v>94</v>
+      </c>
+      <c r="K8" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s"/>
+      <c r="O8" t="s"/>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>3</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" t="s">
+        <v>101</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>4</v>
+      </c>
+      <c r="R9" t="n">
+        <v>4</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_563.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_563.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Daeqwon F</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -186,6 +189,9 @@
     <t>From the staff to the rooms, I wasn't happy. While checking in the man at the front desk wasn't very friendly nor did he have any customer service skills. He was very short and took my payment gave me my key and just seemed like he wanted to get me away from the front desk. Once I got to my room, I found nothing but problems. To start, the TV wasn't working. When cleaning the rooms I think house keeping should be checking things like that. I called down to the front desk and was told that someone would be right up. 2 hours past before I had to leave for a meeting and no one. As I was leaving I stopped down at the desk to speak with someone. I was in line behind a family checking in and for 20 minutes the men at the desk talked in their native language and didn't even turn to address us. They were loud and obnoxious. After they finished their conversation and the line has built, one of them goes "oh we were changing shifts and need to catch up." Well, don't 'catch up' nor change shifts at the front desk, and if you do, address the people waiting and let us know you'll be right with us and that you see us standing here. I asked why hasn't anyone been to my room and I was told "I sent him,...From the staff to the rooms, I wasn't happy. While checking in the man at the front desk wasn't very friendly nor did he have any customer service skills. He was very short and took my payment gave me my key and just seemed like he wanted to get me away from the front desk. Once I got to my room, I found nothing but problems. To start, the TV wasn't working. When cleaning the rooms I think house keeping should be checking things like that. I called down to the front desk and was told that someone would be right up. 2 hours past before I had to leave for a meeting and no one. As I was leaving I stopped down at the desk to speak with someone. I was in line behind a family checking in and for 20 minutes the men at the desk talked in their native language and didn't even turn to address us. They were loud and obnoxious. After they finished their conversation and the line has built, one of them goes "oh we were changing shifts and need to catch up." Well, don't 'catch up' nor change shifts at the front desk, and if you do, address the people waiting and let us know you'll be right with us and that you see us standing here. I asked why hasn't anyone been to my room and I was told "I sent him, not sure why he didn't stop." I asked for someone to go up and fix the TV. I was gone for almost 4 hours got back to my room and the TV STILL wasn't working. This time I went to the desk and demanded that someone went up with me, after all that I got a barely working TV. The next part of the room is the worst. I went to take my shower and the bathroom was just not okay. There were holes in the walls all over, the toilet wasn't correctly fixed to the wall or floor, the shower was dirty and had mold, and the lights were dim and full of spiderwebs. I couldn't check out of this hotel fast enough. More</t>
   </si>
   <si>
+    <t>Delta D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r309312724-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -213,6 +219,9 @@
     <t>So I booked this room last min after attending a concert bc of the vacancy and price. The clerk checks me in and gives me my room card. When I enter the room there are men's clothing and underwear strewn all over the room. I immediately turn and run out bc I was alone and didn't know if the owner of the clothing was there too. I make it back to the front desk to get the clerk and he tells me he will go check. When he returns he asks me is that not my stuff and I'm like sir you just checked me in less then 5 mins ago and all you saw me with was a small handbag. So by now my friend is pissed bc his parents were robbed the weekend before at a hotel bc of similar mistakes. So now the clerk is calling him stupid bc he is questioning him about his mistake. Even though we should have left right then we stayed. The top lock/latch was broken and there was a hole in the wall the size of a fist....never againMore</t>
   </si>
   <si>
+    <t>Rain Y</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r210228326-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -237,6 +246,9 @@
     <t>The first thing i experienced here was a guy telling the apathetic and annoyed clerk his radio was stolen the night before in the parking lot. Should have known then to leave, but i stayed anyway. As i walked back to my car i noticed one of the cars in the lot was up on blocks with wheels missing.  Later in the room i had to throw the pillows off the bed because it was covered with dirt or something. Later my husband looked out the window to see a car go by with a gun pointed out the window. Constantly people comibg and going. Oh, and how could i forget the many prostitutes that seemed to be residing there. I was up all night worried that my car would get broken into or someone might start shooting. Do not stay here!More</t>
   </si>
   <si>
+    <t>Yvette A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r185622973-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -261,6 +273,9 @@
     <t>The place was all over FILTHY!!!1. Gross, sticky substance on the floor by the bed.2. Pubic hair ALL OVER the bed.3. Sheets and bed comforter were stained, filthy and disgusting.4. The heater would not power off , as a result the room was over-heated.5. The room had a stomach-turning, foul odor.6. The floors looked like they had not been mopped in months.The place was so bad I didn't even want to walk in the bathroom thinking I was going to get filthy just by stepping into the shower. Its obvious that there is no maid service that do the job. I would NOT recommend this hotel to my worst enemy.More</t>
   </si>
   <si>
+    <t>EnlaceCA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r185427163-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -279,6 +294,9 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
+    <t>Ms2Cute</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r165132336-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -294,6 +312,9 @@
     <t>My fiancé and I stayed here one night due to traveling.  All I can say is RUN!  DO NOT STAY HERE!  The customer service is non-exsistent, the rooms are ghetto, and the smell is rancid!  If you are looking for a "good time" in and out place of stay...by all means do you!  We just got robbed of our $60 investment!</t>
   </si>
   <si>
+    <t>Niquey2004</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r141608170-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -307,6 +328,9 @@
   </si>
   <si>
     <t>The room stinch was horrible and the room would not cool down. She acted like she did not want to move my room. After 10 mins she FINALLY moved my room and it didn't have a phone and the room was still HOT and muggy please so not waste your money staying here.</t>
+  </si>
+  <si>
+    <t>Jmpage74</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r128090446-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
@@ -826,43 +850,47 @@
       <c r="A2" t="n">
         <v>34034</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>95897</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -874,56 +902,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="X2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="Y2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34034</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>169322</v>
+      </c>
+      <c r="C3" t="s">
+        <v>57</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="L3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="O3" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -935,56 +967,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="X3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34034</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>169323</v>
+      </c>
+      <c r="C4" t="s">
+        <v>67</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="J4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="O4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -998,50 +1034,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34034</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>1586</v>
+      </c>
+      <c r="C5" t="s">
+        <v>76</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="J5" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="L5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
         <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -1065,50 +1105,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34034</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>169324</v>
+      </c>
+      <c r="C6" t="s">
+        <v>85</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="K6" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="L6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="M6" t="n">
         <v>4</v>
       </c>
       <c r="N6" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="O6" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1122,41 +1166,45 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34034</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>169325</v>
+      </c>
+      <c r="C7" t="s">
+        <v>92</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="J7" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="K7" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="L7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -1185,41 +1233,45 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34034</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>169326</v>
+      </c>
+      <c r="C8" t="s">
+        <v>98</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="J8" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
@@ -1248,41 +1300,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34034</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>169327</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="K9" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="L9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="M9" t="n">
         <v>4</v>
@@ -1311,7 +1367,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_563.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_563.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="142">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,69 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Daeqwon F</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/26/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r567780195-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>55711</t>
+  </si>
+  <si>
+    <t>244325</t>
+  </si>
+  <si>
+    <t>567780195</t>
+  </si>
+  <si>
+    <t>03/20/2018</t>
+  </si>
+  <si>
+    <t>Never Again!</t>
+  </si>
+  <si>
+    <t>First of all, when I walked in there was a smell of cigarettes and marijuana. Second,  the front desk clerks are rude, I guess they think thought they were doing me a favor. I am not one of those prostitutes you let in off the street or a drug dealer. Don't stay here because it is too loud,  the door is slammed all night long. Plus, you hear dogs, cats and babies crying. The room wasn't clean. Also, the price is too much for this Motel 6, but at least it has a refrigerator. I was there two days, on my second day, my mom made a reservation online, which I saved 10%. But I was told that my mom cannot use her discount unless she was here with me. Also, he claimed he couldn't run my Visa without my pin which was a lie because the other guy ran it without a pin, because I use credit. I don't trust these people taken a copy of my DL and asking for a pin.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>6Team, Guest Relations Manager at Motel 6 Dallas Northeast, responded to this reviewResponded March 23, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 23, 2018</t>
+  </si>
+  <si>
+    <t>First of all, when I walked in there was a smell of cigarettes and marijuana. Second,  the front desk clerks are rude, I guess they think thought they were doing me a favor. I am not one of those prostitutes you let in off the street or a drug dealer. Don't stay here because it is too loud,  the door is slammed all night long. Plus, you hear dogs, cats and babies crying. The room wasn't clean. Also, the price is too much for this Motel 6, but at least it has a refrigerator. I was there two days, on my second day, my mom made a reservation online, which I saved 10%. But I was told that my mom cannot use her discount unless she was here with me. Also, he claimed he couldn't run my Visa without my pin which was a lie because the other guy ran it without a pin, because I use credit. I don't trust these people taken a copy of my DL and asking for a pin.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r464488396-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>464488396</t>
+  </si>
+  <si>
+    <t>03/04/2017</t>
+  </si>
+  <si>
+    <t>Not worth the $80</t>
+  </si>
+  <si>
+    <t>The front seat staff was nice enough however the room was not very good. This is a $40/night room, not $80. Online I knew it was renting for $53 and when I got to check in they said it was $80. I didn't do a reservation so I figured my fault on that. I was just too tired to go find somewhere else. I knew it wasn't going to be nice but I wasn't expecting this. Bathroom door doesn't lock. Light in shower is exposed which is a safety issue. The hall smelled of pot. Non smoking room with an ashtray. Drunk guys walking up and down the hall all night. I had to give the sink, table and toilet a quick wipe down with Clorox wipes. This is an "hourly" hotel with a nightly rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>The front seat staff was nice enough however the room was not very good. This is a $40/night room, not $80. Online I knew it was renting for $53 and when I got to check in they said it was $80. I didn't do a reservation so I figured my fault on that. I was just too tired to go find somewhere else. I knew it wasn't going to be nice but I wasn't expecting this. Bathroom door doesn't lock. Light in shower is exposed which is a safety issue. The hall smelled of pot. Non smoking room with an ashtray. Drunk guys walking up and down the hall all night. I had to give the sink, table and toilet a quick wipe down with Clorox wipes. This is an "hourly" hotel with a nightly rate.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r369595151-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
-    <t>55711</t>
-  </si>
-  <si>
-    <t>244325</t>
-  </si>
-  <si>
     <t>369595151</t>
   </si>
   <si>
@@ -189,9 +237,6 @@
     <t>From the staff to the rooms, I wasn't happy. While checking in the man at the front desk wasn't very friendly nor did he have any customer service skills. He was very short and took my payment gave me my key and just seemed like he wanted to get me away from the front desk. Once I got to my room, I found nothing but problems. To start, the TV wasn't working. When cleaning the rooms I think house keeping should be checking things like that. I called down to the front desk and was told that someone would be right up. 2 hours past before I had to leave for a meeting and no one. As I was leaving I stopped down at the desk to speak with someone. I was in line behind a family checking in and for 20 minutes the men at the desk talked in their native language and didn't even turn to address us. They were loud and obnoxious. After they finished their conversation and the line has built, one of them goes "oh we were changing shifts and need to catch up." Well, don't 'catch up' nor change shifts at the front desk, and if you do, address the people waiting and let us know you'll be right with us and that you see us standing here. I asked why hasn't anyone been to my room and I was told "I sent him,...From the staff to the rooms, I wasn't happy. While checking in the man at the front desk wasn't very friendly nor did he have any customer service skills. He was very short and took my payment gave me my key and just seemed like he wanted to get me away from the front desk. Once I got to my room, I found nothing but problems. To start, the TV wasn't working. When cleaning the rooms I think house keeping should be checking things like that. I called down to the front desk and was told that someone would be right up. 2 hours past before I had to leave for a meeting and no one. As I was leaving I stopped down at the desk to speak with someone. I was in line behind a family checking in and for 20 minutes the men at the desk talked in their native language and didn't even turn to address us. They were loud and obnoxious. After they finished their conversation and the line has built, one of them goes "oh we were changing shifts and need to catch up." Well, don't 'catch up' nor change shifts at the front desk, and if you do, address the people waiting and let us know you'll be right with us and that you see us standing here. I asked why hasn't anyone been to my room and I was told "I sent him, not sure why he didn't stop." I asked for someone to go up and fix the TV. I was gone for almost 4 hours got back to my room and the TV STILL wasn't working. This time I went to the desk and demanded that someone went up with me, after all that I got a barely working TV. The next part of the room is the worst. I went to take my shower and the bathroom was just not okay. There were holes in the walls all over, the toilet wasn't correctly fixed to the wall or floor, the shower was dirty and had mold, and the lights were dim and full of spiderwebs. I couldn't check out of this hotel fast enough. More</t>
   </si>
   <si>
-    <t>Delta D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r309312724-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -219,9 +264,6 @@
     <t>So I booked this room last min after attending a concert bc of the vacancy and price. The clerk checks me in and gives me my room card. When I enter the room there are men's clothing and underwear strewn all over the room. I immediately turn and run out bc I was alone and didn't know if the owner of the clothing was there too. I make it back to the front desk to get the clerk and he tells me he will go check. When he returns he asks me is that not my stuff and I'm like sir you just checked me in less then 5 mins ago and all you saw me with was a small handbag. So by now my friend is pissed bc his parents were robbed the weekend before at a hotel bc of similar mistakes. So now the clerk is calling him stupid bc he is questioning him about his mistake. Even though we should have left right then we stayed. The top lock/latch was broken and there was a hole in the wall the size of a fist....never againMore</t>
   </si>
   <si>
-    <t>Rain Y</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r210228326-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -246,7 +288,42 @@
     <t>The first thing i experienced here was a guy telling the apathetic and annoyed clerk his radio was stolen the night before in the parking lot. Should have known then to leave, but i stayed anyway. As i walked back to my car i noticed one of the cars in the lot was up on blocks with wheels missing.  Later in the room i had to throw the pillows off the bed because it was covered with dirt or something. Later my husband looked out the window to see a car go by with a gun pointed out the window. Constantly people comibg and going. Oh, and how could i forget the many prostitutes that seemed to be residing there. I was up all night worried that my car would get broken into or someone might start shooting. Do not stay here!More</t>
   </si>
   <si>
-    <t>Yvette A</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r205936576-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>205936576</t>
+  </si>
+  <si>
+    <t>05/17/2014</t>
+  </si>
+  <si>
+    <t>Worst hotel experience ever!!</t>
+  </si>
+  <si>
+    <t>I've stayed in many hotels &amp; do a lot of traveling business &amp; pleasure. This by far was the worst hotel I have ever stayed in…all the towels that were supposed to be "clean" were dirty …so I stepped into the hallway &amp; asked the house keeper for towels she proceeds to tell me I have to ask the house keeper 3 feet away from me.  She does not have any. My question is…how are you 
+"cleaning" rooms and not have clean towels on your cart.   So we called downstairs for towels …an hour later still waiting. They never brought them. I go down to get them myself because I would like to take a shower. We called for an extended checkout time which they kindly gave us an hour. That's fine.  I just want to take a shower before we leave!!! I step in the hall and the manager has the nerve to say "it's checkout time mam" I said I know that sir I've been waiting on towels for an HOUR!! Still never got towels …the light above sink didn't work. No shampoo/ no conditioner. (A free commodity at most ANY hotel or motel.  I wouldn't stay here again if the only other option I had was to stay at a rest stop &amp; sleep in my car.  Highly "UNRECOMMENDED" they give Motel 6 a bad name. I find it Hard to believe that the Motel 6 chain...I've stayed in many hotels &amp; do a lot of traveling business &amp; pleasure. This by far was the worst hotel I have ever stayed in…all the towels that were supposed to be "clean" were dirty …so I stepped into the hallway &amp; asked the house keeper for towels she proceeds to tell me I have to ask the house keeper 3 feet away from me.  She does not have any. My question is…how are you "cleaning" rooms and not have clean towels on your cart.   So we called downstairs for towels …an hour later still waiting. They never brought them. I go down to get them myself because I would like to take a shower. We called for an extended checkout time which they kindly gave us an hour. That's fine.  I just want to take a shower before we leave!!! I step in the hall and the manager has the nerve to say "it's checkout time mam" I said I know that sir I've been waiting on towels for an HOUR!! Still never got towels …the light above sink didn't work. No shampoo/ no conditioner. (A free commodity at most ANY hotel or motel.  I wouldn't stay here again if the only other option I had was to stay at a rest stop &amp; sleep in my car.  Highly "UNRECOMMENDED" they give Motel 6 a bad name. I find it Hard to believe that the Motel 6 chain is ok with their name &amp; brand being represented in this manner. #all true very I satisfied  MoreShow less</t>
+  </si>
+  <si>
+    <t>I've stayed in many hotels &amp; do a lot of traveling business &amp; pleasure. This by far was the worst hotel I have ever stayed in…all the towels that were supposed to be "clean" were dirty …so I stepped into the hallway &amp; asked the house keeper for towels she proceeds to tell me I have to ask the house keeper 3 feet away from me.  She does not have any. My question is…how are you 
+"cleaning" rooms and not have clean towels on your cart.   So we called downstairs for towels …an hour later still waiting. They never brought them. I go down to get them myself because I would like to take a shower. We called for an extended checkout time which they kindly gave us an hour. That's fine.  I just want to take a shower before we leave!!! I step in the hall and the manager has the nerve to say "it's checkout time mam" I said I know that sir I've been waiting on towels for an HOUR!! Still never got towels …the light above sink didn't work. No shampoo/ no conditioner. (A free commodity at most ANY hotel or motel.  I wouldn't stay here again if the only other option I had was to stay at a rest stop &amp; sleep in my car.  Highly "UNRECOMMENDED" they give Motel 6 a bad name. I find it Hard to believe that the Motel 6 chain...I've stayed in many hotels &amp; do a lot of traveling business &amp; pleasure. This by far was the worst hotel I have ever stayed in…all the towels that were supposed to be "clean" were dirty …so I stepped into the hallway &amp; asked the house keeper for towels she proceeds to tell me I have to ask the house keeper 3 feet away from me.  She does not have any. My question is…how are you "cleaning" rooms and not have clean towels on your cart.   So we called downstairs for towels …an hour later still waiting. They never brought them. I go down to get them myself because I would like to take a shower. We called for an extended checkout time which they kindly gave us an hour. That's fine.  I just want to take a shower before we leave!!! I step in the hall and the manager has the nerve to say "it's checkout time mam" I said I know that sir I've been waiting on towels for an HOUR!! Still never got towels …the light above sink didn't work. No shampoo/ no conditioner. (A free commodity at most ANY hotel or motel.  I wouldn't stay here again if the only other option I had was to stay at a rest stop &amp; sleep in my car.  Highly "UNRECOMMENDED" they give Motel 6 a bad name. I find it Hard to believe that the Motel 6 chain is ok with their name &amp; brand being represented in this manner. #all true very I satisfied  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r193304560-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>193304560</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Stinky, smoky, smelly lobby in a motel nowadays? Are you kidding?</t>
+  </si>
+  <si>
+    <t>Came to this motel despite 2 star rating. First "clue" was the LOCKED, yes LOCKED, lobby doors that the desk clerk had to unlock from behind his counter. He couldn't assist me with finding another Motel 6 that was closer down the interstate to our destination at all. I think I knew more about Motel 6's than HE did.  The lobby stank of smoke like they used to many years ago. UGH.  Surprised that Motel 6 doesn't drop this location since they are trying to upgrade many of their motels and I ended up staying at one "down the road" in Lewisville, TX..</t>
+  </si>
+  <si>
+    <t>February 2014</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r185622973-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
@@ -273,9 +350,6 @@
     <t>The place was all over FILTHY!!!1. Gross, sticky substance on the floor by the bed.2. Pubic hair ALL OVER the bed.3. Sheets and bed comforter were stained, filthy and disgusting.4. The heater would not power off , as a result the room was over-heated.5. The room had a stomach-turning, foul odor.6. The floors looked like they had not been mopped in months.The place was so bad I didn't even want to walk in the bathroom thinking I was going to get filthy just by stepping into the shower. Its obvious that there is no maid service that do the job. I would NOT recommend this hotel to my worst enemy.More</t>
   </si>
   <si>
-    <t>EnlaceCA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r185427163-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -294,9 +368,6 @@
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
-    <t>Ms2Cute</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r165132336-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
   </si>
   <si>
@@ -312,7 +383,37 @@
     <t>My fiancé and I stayed here one night due to traveling.  All I can say is RUN!  DO NOT STAY HERE!  The customer service is non-exsistent, the rooms are ghetto, and the smell is rancid!  If you are looking for a "good time" in and out place of stay...by all means do you!  We just got robbed of our $60 investment!</t>
   </si>
   <si>
-    <t>Niquey2004</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r157737096-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>157737096</t>
+  </si>
+  <si>
+    <t>04/14/2013</t>
+  </si>
+  <si>
+    <t>Most nasty place ive ever stayed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Indian...not feathers...dots. run the place. Eno ugh said. Rude front desk unprofessional, undomesticated people. Lobby had junk throen around, every machine rattled and made noises as if they were in last limb. Wood floors gross, stains all over the wall, bathroom was weird, back of fridge was caaaaked with dust and mold. Sheets and comforters were thin as paper. Hallways spelled soooo bad. Mattresses were horrible. Its awful, the place needs to be updated baaaad or tore down and rebuilt. Its very affordable, bit trust me spend $100or a little more snd stay off highway 75...book in advance rooms in this area go fast. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r154710829-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
+  </si>
+  <si>
+    <t>154710829</t>
+  </si>
+  <si>
+    <t>03/15/2013</t>
+  </si>
+  <si>
+    <t>Wow.</t>
+  </si>
+  <si>
+    <t>As i pulled in, I was greeted by a prostitute. upon inspecting my room, i realized the window would not close, or lock (Room 116). Room 237 was under construction. In Room 133 the refridgerator door fell off. Everything smells musty, or like weed. Which isnt a bad thing, but this was some shttya$s weed. Like, dude, by something better, it smells like a skunk took a $hit in my nasal cavity. Upon getting a refund and leaving, another nice prostitute asked what i needed. Nothing, thanks.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r141608170-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
@@ -328,9 +429,6 @@
   </si>
   <si>
     <t>The room stinch was horrible and the room would not cool down. She acted like she did not want to move my room. After 10 mins she FINALLY moved my room and it didn't have a phone and the room was still HOT and muggy please so not waste your money staying here.</t>
-  </si>
-  <si>
-    <t>Jmpage74</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55711-d244325-r128090446-Motel_6_Dallas_Northeast-Dallas_Texas.html</t>
@@ -850,47 +948,43 @@
       <c r="A2" t="n">
         <v>34034</v>
       </c>
-      <c r="B2" t="n">
-        <v>95897</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>43</v>
       </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>45</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>46</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
-      </c>
-      <c r="L2" t="s">
-        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>2</v>
       </c>
       <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -902,60 +996,56 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
+        <v>53</v>
+      </c>
+      <c r="X2" t="s">
         <v>54</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>55</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>34034</v>
       </c>
-      <c r="B3" t="n">
-        <v>169322</v>
-      </c>
-      <c r="C3" t="s">
-        <v>57</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>57</v>
+      </c>
+      <c r="J3" t="s">
         <v>58</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>59</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>60</v>
       </c>
-      <c r="K3" t="s">
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
         <v>61</v>
       </c>
-      <c r="L3" t="s">
-        <v>62</v>
-      </c>
-      <c r="M3" t="n">
-        <v>1</v>
-      </c>
-      <c r="N3" t="s">
-        <v>63</v>
-      </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -966,61 +1056,53 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s">
-        <v>64</v>
-      </c>
-      <c r="X3" t="s">
-        <v>65</v>
-      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>34034</v>
       </c>
-      <c r="B4" t="n">
-        <v>169323</v>
-      </c>
-      <c r="C4" t="s">
-        <v>67</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
         <v>68</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="O4" t="s">
         <v>69</v>
-      </c>
-      <c r="J4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K4" t="s">
-        <v>71</v>
-      </c>
-      <c r="L4" t="s">
-        <v>72</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>73</v>
-      </c>
-      <c r="O4" t="s">
-        <v>74</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1031,128 +1113,118 @@
       <c r="V4" t="n">
         <v>0</v>
       </c>
-      <c r="W4" t="s"/>
-      <c r="X4" t="s"/>
+      <c r="W4" t="s">
+        <v>70</v>
+      </c>
+      <c r="X4" t="s">
+        <v>71</v>
+      </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>34034</v>
       </c>
-      <c r="B5" t="n">
-        <v>1586</v>
-      </c>
-      <c r="C5" t="s">
-        <v>76</v>
-      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>74</v>
+      </c>
+      <c r="J5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L5" t="s">
         <v>77</v>
       </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>78</v>
       </c>
-      <c r="J5" t="s">
-        <v>79</v>
-      </c>
-      <c r="K5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" t="n">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>82</v>
-      </c>
       <c r="O5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P5" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>1</v>
-      </c>
-      <c r="R5" t="n">
-        <v>3</v>
-      </c>
-      <c r="S5" t="n">
-        <v>1</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="n">
-        <v>3</v>
-      </c>
+      <c r="U5" t="s"/>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s"/>
-      <c r="X5" t="s"/>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>34034</v>
       </c>
-      <c r="B6" t="n">
-        <v>169324</v>
-      </c>
-      <c r="C6" t="s">
-        <v>85</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
         <v>86</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
         <v>87</v>
       </c>
-      <c r="J6" t="s">
+      <c r="O6" t="s">
         <v>88</v>
-      </c>
-      <c r="K6" t="s">
-        <v>89</v>
-      </c>
-      <c r="L6" t="s">
-        <v>90</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>82</v>
-      </c>
-      <c r="O6" t="s">
-        <v>91</v>
       </c>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
@@ -1166,45 +1238,41 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>34034</v>
       </c>
-      <c r="B7" t="n">
-        <v>169325</v>
-      </c>
-      <c r="C7" t="s">
-        <v>92</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
+        <v>90</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>91</v>
+      </c>
+      <c r="J7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K7" t="s">
         <v>93</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="L7" t="s">
         <v>94</v>
-      </c>
-      <c r="J7" t="s">
-        <v>95</v>
-      </c>
-      <c r="K7" t="s">
-        <v>96</v>
-      </c>
-      <c r="L7" t="s">
-        <v>97</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
@@ -1233,63 +1301,59 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>34034</v>
       </c>
-      <c r="B8" t="n">
-        <v>169326</v>
-      </c>
-      <c r="C8" t="s">
-        <v>98</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J8" t="s">
+        <v>98</v>
+      </c>
+      <c r="K8" t="s">
         <v>99</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>100</v>
       </c>
-      <c r="J8" t="s">
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="s">
         <v>101</v>
       </c>
-      <c r="K8" t="s">
-        <v>102</v>
-      </c>
-      <c r="L8" t="s">
-        <v>103</v>
-      </c>
-      <c r="M8" t="n">
-        <v>1</v>
-      </c>
-      <c r="N8" t="s"/>
-      <c r="O8" t="s"/>
+      <c r="O8" t="s">
+        <v>69</v>
+      </c>
       <c r="P8" t="n">
-        <v>1</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>1</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="n">
         <v>3</v>
       </c>
-      <c r="S8" t="n">
-        <v>1</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
         <v>1</v>
@@ -1300,62 +1364,62 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>34034</v>
       </c>
-      <c r="B9" t="n">
-        <v>169327</v>
-      </c>
-      <c r="C9" t="s">
-        <v>104</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" t="s">
+        <v>104</v>
+      </c>
+      <c r="K9" t="s">
         <v>105</v>
       </c>
-      <c r="G9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H9" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>106</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="s">
         <v>107</v>
       </c>
-      <c r="K9" t="s">
+      <c r="O9" t="s">
         <v>108</v>
       </c>
-      <c r="L9" t="s">
-        <v>109</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
       <c r="P9" t="n">
         <v>3</v>
       </c>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
@@ -1370,6 +1434,382 @@
         <v>109</v>
       </c>
     </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>107</v>
+      </c>
+      <c r="O10" t="s">
+        <v>115</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s"/>
+      <c r="O11" t="s"/>
+      <c r="P11" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1</v>
+      </c>
+      <c r="R11" t="n">
+        <v>1</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>1</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>121</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>122</v>
+      </c>
+      <c r="J12" t="s">
+        <v>123</v>
+      </c>
+      <c r="K12" t="s">
+        <v>124</v>
+      </c>
+      <c r="L12" t="s">
+        <v>125</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>1</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>69</v>
+      </c>
+      <c r="P13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
+        <v>2</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>3</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
+        <v>136</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s"/>
+      <c r="O14" t="s"/>
+      <c r="P14" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="n">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>34034</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>137</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>138</v>
+      </c>
+      <c r="J15" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" t="s">
+        <v>141</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>4</v>
+      </c>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="n">
+        <v>4</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>3</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>141</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>